--- a/非受控文档/3绩效/12月05日/12-05绩效.xlsx
+++ b/非受控文档/3绩效/12月05日/12-05绩效.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,19 +23,19 @@
   <si>
     <t xml:space="preserve">                 被评审人
 评审人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12/05总绩效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏昌灏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>叶忠杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吴荣欣</t>
@@ -48,21 +48,14 @@
   </si>
   <si>
     <t>总评价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +68,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -109,8 +109,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -392,11 +392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,14 +502,46 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1">
+        <v>78.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <f>AVERAGE(B4:B7)</f>
+        <v>85</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C5:C7)</f>
+        <v>82.166666666666671</v>
+      </c>
+      <c r="D8" s="1">
+        <f>AVERAGE(D6:D7)</f>
+        <v>77</v>
+      </c>
+      <c r="E8" s="1">
+        <f>AVERAGE(E7)</f>
+        <v>84.5</v>
+      </c>
+      <c r="F8" s="1">
+        <f>AVERAGE(F3:F7)</f>
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
